--- a/data/pca/factorExposure/factorExposure_2018-09-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03767666095906044</v>
+        <v>-0.03385627859780377</v>
       </c>
       <c r="C2">
-        <v>0.04961617706075606</v>
+        <v>-0.006955422908462092</v>
       </c>
       <c r="D2">
-        <v>0.03484453644298682</v>
+        <v>-0.009728766312281105</v>
       </c>
       <c r="E2">
-        <v>0.04529460588601572</v>
+        <v>0.01565023887421018</v>
       </c>
       <c r="F2">
-        <v>0.1371130209997205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02509686782522017</v>
+      </c>
+      <c r="G2">
+        <v>-0.07847101944366353</v>
+      </c>
+      <c r="H2">
+        <v>0.01580740611020822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1302862721171853</v>
+        <v>-0.0830332705968885</v>
       </c>
       <c r="C3">
-        <v>0.02270613977310442</v>
+        <v>0.03484602551316796</v>
       </c>
       <c r="D3">
-        <v>0.0304960541827294</v>
+        <v>-0.01935746617331675</v>
       </c>
       <c r="E3">
-        <v>0.07366113819751441</v>
+        <v>0.0102009749428081</v>
       </c>
       <c r="F3">
-        <v>0.3494620911346528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.001714041759829676</v>
+      </c>
+      <c r="G3">
+        <v>-0.2651186986478229</v>
+      </c>
+      <c r="H3">
+        <v>0.0293013814199896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04594514964690732</v>
+        <v>-0.0459463630947403</v>
       </c>
       <c r="C4">
-        <v>0.03625271662184881</v>
+        <v>0.005834056245226606</v>
       </c>
       <c r="D4">
-        <v>-0.003974862632531179</v>
+        <v>-0.02158680584312222</v>
       </c>
       <c r="E4">
-        <v>0.06755966449059678</v>
+        <v>-0.02175661351216899</v>
       </c>
       <c r="F4">
-        <v>0.06233100968757607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06291330380477453</v>
+      </c>
+      <c r="G4">
+        <v>-0.04407359457179172</v>
+      </c>
+      <c r="H4">
+        <v>0.02590938189992052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01067893116360502</v>
+        <v>-0.03052909643665349</v>
       </c>
       <c r="C6">
-        <v>0.001145198227241325</v>
+        <v>0.003928476209570013</v>
       </c>
       <c r="D6">
-        <v>0.01029876876713919</v>
+        <v>-0.03208730198426146</v>
       </c>
       <c r="E6">
-        <v>0.009499260249027225</v>
+        <v>-0.006830459341344019</v>
       </c>
       <c r="F6">
-        <v>0.01210667603068264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.04117361179767094</v>
+      </c>
+      <c r="G6">
+        <v>-0.009515126355777991</v>
+      </c>
+      <c r="H6">
+        <v>0.04996452785124114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02347843191669612</v>
+        <v>-0.02085757166405889</v>
       </c>
       <c r="C7">
-        <v>0.01970382538806916</v>
+        <v>0.002179771806359079</v>
       </c>
       <c r="D7">
-        <v>0.02649894283605455</v>
+        <v>-0.01182830231295403</v>
       </c>
       <c r="E7">
-        <v>0.03097464607869123</v>
+        <v>-0.03583464048670169</v>
       </c>
       <c r="F7">
-        <v>0.07102595390879823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02601112502127453</v>
+      </c>
+      <c r="G7">
+        <v>-0.03289716544137797</v>
+      </c>
+      <c r="H7">
+        <v>0.01737694659663092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008598055577165231</v>
+        <v>-0.0004664958053120262</v>
       </c>
       <c r="C8">
-        <v>0.008887137491411829</v>
+        <v>0.0002081455926936347</v>
       </c>
       <c r="D8">
-        <v>-0.00569897153022737</v>
+        <v>-0.01293759438314824</v>
       </c>
       <c r="E8">
-        <v>0.07258859371358364</v>
+        <v>-0.01307435048519374</v>
       </c>
       <c r="F8">
-        <v>0.09095312085772977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02802819126522799</v>
+      </c>
+      <c r="G8">
+        <v>-0.05039398424963593</v>
+      </c>
+      <c r="H8">
+        <v>0.007483218866760672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03672643376984024</v>
+        <v>-0.03623253793021194</v>
       </c>
       <c r="C9">
-        <v>0.03069974393070449</v>
+        <v>0.007837214302431788</v>
       </c>
       <c r="D9">
-        <v>-0.01931750051098799</v>
+        <v>-0.01739504997567956</v>
       </c>
       <c r="E9">
-        <v>0.06682911239066244</v>
+        <v>-0.01988425427938227</v>
       </c>
       <c r="F9">
-        <v>0.07110605808576373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0401898083111269</v>
+      </c>
+      <c r="G9">
+        <v>-0.05953694904092467</v>
+      </c>
+      <c r="H9">
+        <v>0.02859927616709631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0579373124658147</v>
+        <v>-0.07772658361962093</v>
       </c>
       <c r="C10">
-        <v>0.05039767501425885</v>
+        <v>0.04532165157561597</v>
       </c>
       <c r="D10">
-        <v>-0.01982143205230463</v>
+        <v>0.1406497447782347</v>
       </c>
       <c r="E10">
-        <v>-0.1136159281828987</v>
+        <v>0.02604750515106331</v>
       </c>
       <c r="F10">
-        <v>0.0546555846054031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.09103500899092258</v>
+      </c>
+      <c r="G10">
+        <v>-0.03618226501389271</v>
+      </c>
+      <c r="H10">
+        <v>0.006110432038022934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03125504936964153</v>
+        <v>-0.02141046264481134</v>
       </c>
       <c r="C11">
-        <v>0.01128722569494971</v>
+        <v>0.01358916910596547</v>
       </c>
       <c r="D11">
-        <v>0.013607773769245</v>
+        <v>-0.03018377117798393</v>
       </c>
       <c r="E11">
-        <v>0.03158514262024551</v>
+        <v>0.002415505906525267</v>
       </c>
       <c r="F11">
-        <v>0.03798022505400005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02611683367909734</v>
+      </c>
+      <c r="G11">
+        <v>-0.03244720714419298</v>
+      </c>
+      <c r="H11">
+        <v>0.02667234648234566</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03871614175252296</v>
+        <v>-0.0302090503778779</v>
       </c>
       <c r="C12">
-        <v>0.01336093954713901</v>
+        <v>0.01385062911342871</v>
       </c>
       <c r="D12">
-        <v>0.004119790737256606</v>
+        <v>-0.02969412516332334</v>
       </c>
       <c r="E12">
-        <v>0.0476289809401967</v>
+        <v>-0.008096043833357691</v>
       </c>
       <c r="F12">
-        <v>0.02425427518978311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03036696769806161</v>
+      </c>
+      <c r="G12">
+        <v>-0.00745744199614958</v>
+      </c>
+      <c r="H12">
+        <v>0.01425883516760863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01851859982661739</v>
+        <v>-0.02741579349273636</v>
       </c>
       <c r="C13">
-        <v>0.02327880426175396</v>
+        <v>-0.007456589661635638</v>
       </c>
       <c r="D13">
-        <v>0.03320684953787009</v>
+        <v>-0.0006086214277907148</v>
       </c>
       <c r="E13">
-        <v>0.01910937732453027</v>
+        <v>0.01675760579741817</v>
       </c>
       <c r="F13">
-        <v>0.08081022421632982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02216342904851004</v>
+      </c>
+      <c r="G13">
+        <v>-0.06097480662034524</v>
+      </c>
+      <c r="H13">
+        <v>0.02390763982469286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01065834032024256</v>
+        <v>-0.01528423199215325</v>
       </c>
       <c r="C14">
-        <v>0.02127197819829611</v>
+        <v>0.003251740905631203</v>
       </c>
       <c r="D14">
-        <v>0.002222740259639982</v>
+        <v>0.0002924668408323583</v>
       </c>
       <c r="E14">
-        <v>0.03765942871858373</v>
+        <v>-0.007598752641667776</v>
       </c>
       <c r="F14">
-        <v>0.06574983299515186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.0258299423428556</v>
+      </c>
+      <c r="G14">
+        <v>-0.03991666404034983</v>
+      </c>
+      <c r="H14">
+        <v>-0.02019496693288716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02460387758688897</v>
+        <v>-0.0215531385761965</v>
       </c>
       <c r="C16">
-        <v>0.0125517594899216</v>
+        <v>0.01372181420106679</v>
       </c>
       <c r="D16">
-        <v>0.01256105730054099</v>
+        <v>-0.02880198222314856</v>
       </c>
       <c r="E16">
-        <v>0.03225627638980658</v>
+        <v>-0.002159182431014405</v>
       </c>
       <c r="F16">
-        <v>0.03828746887749768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02855312626576828</v>
+      </c>
+      <c r="G16">
+        <v>-0.02545265355736999</v>
+      </c>
+      <c r="H16">
+        <v>0.02023372281100141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03767687960009636</v>
+        <v>-0.03553974435117667</v>
       </c>
       <c r="C19">
-        <v>0.01332758229380203</v>
+        <v>0.009114816004497697</v>
       </c>
       <c r="D19">
-        <v>0.01969506526024051</v>
+        <v>-0.008581948258237932</v>
       </c>
       <c r="E19">
-        <v>0.04045288954933737</v>
+        <v>0.002383389682778651</v>
       </c>
       <c r="F19">
-        <v>0.09534965264457017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03211198852753398</v>
+      </c>
+      <c r="G19">
+        <v>-0.06486323262692523</v>
+      </c>
+      <c r="H19">
+        <v>0.03682893672498246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.007475021503463374</v>
+        <v>-0.007221534064726442</v>
       </c>
       <c r="C20">
-        <v>0.02038085453219953</v>
+        <v>-0.006241248451526276</v>
       </c>
       <c r="D20">
-        <v>0.003719556273437469</v>
+        <v>-0.0003909533366977578</v>
       </c>
       <c r="E20">
-        <v>0.02672862396256948</v>
+        <v>-0.001914810807975624</v>
       </c>
       <c r="F20">
-        <v>0.06067935878290513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01763554558821198</v>
+      </c>
+      <c r="G20">
+        <v>-0.04820034218446539</v>
+      </c>
+      <c r="H20">
+        <v>-0.01144601229258255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002533472907017424</v>
+        <v>-0.02297506425287241</v>
       </c>
       <c r="C21">
-        <v>-0.002972009946002406</v>
+        <v>-0.0009810999085659857</v>
       </c>
       <c r="D21">
-        <v>0.007339334978625383</v>
+        <v>0.0004093368583383781</v>
       </c>
       <c r="E21">
-        <v>0.03387706893756212</v>
+        <v>-0.0120290711268373</v>
       </c>
       <c r="F21">
-        <v>0.0900487810935084</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.008825111581030456</v>
+      </c>
+      <c r="G21">
+        <v>-0.05273080653400785</v>
+      </c>
+      <c r="H21">
+        <v>0.008728477463465965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02604877634100542</v>
+        <v>-0.02227728296694672</v>
       </c>
       <c r="C24">
-        <v>0.01189970635365403</v>
+        <v>0.008833157879221291</v>
       </c>
       <c r="D24">
-        <v>0.009286010264055287</v>
+        <v>-0.02675436874489839</v>
       </c>
       <c r="E24">
-        <v>0.02602948877866966</v>
+        <v>-0.001891558712214462</v>
       </c>
       <c r="F24">
-        <v>0.04022190544422827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02322810077235524</v>
+      </c>
+      <c r="G24">
+        <v>-0.02698565775552621</v>
+      </c>
+      <c r="H24">
+        <v>0.02734901151713036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02976103359940557</v>
+        <v>-0.03269060786780408</v>
       </c>
       <c r="C25">
-        <v>0.01119821432277506</v>
+        <v>0.009542501978656318</v>
       </c>
       <c r="D25">
-        <v>0.007844079184658294</v>
+        <v>-0.02080994613300499</v>
       </c>
       <c r="E25">
-        <v>0.03255210031699175</v>
+        <v>-0.001609114227337181</v>
       </c>
       <c r="F25">
-        <v>0.03865699524723248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0281721684319413</v>
+      </c>
+      <c r="G25">
+        <v>-0.03157427268379764</v>
+      </c>
+      <c r="H25">
+        <v>0.02963697260658582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01699430188236317</v>
+        <v>-0.020414082298481</v>
       </c>
       <c r="C26">
-        <v>-0.0003849155894791398</v>
+        <v>-0.01418530639140254</v>
       </c>
       <c r="D26">
-        <v>0.03499487043999373</v>
+        <v>-0.00615466098306762</v>
       </c>
       <c r="E26">
-        <v>0.04041816689799119</v>
+        <v>0.006293473626253454</v>
       </c>
       <c r="F26">
-        <v>0.05973520758488888</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.007014255175712501</v>
+      </c>
+      <c r="G26">
+        <v>-0.03694017251608823</v>
+      </c>
+      <c r="H26">
+        <v>-0.0009989358991753683</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07187681550434885</v>
+        <v>-0.03136254762092524</v>
       </c>
       <c r="C27">
-        <v>0.05249195162329334</v>
+        <v>0.02056917956050728</v>
       </c>
       <c r="D27">
-        <v>-0.004812782000823618</v>
+        <v>-0.002389904098609574</v>
       </c>
       <c r="E27">
-        <v>0.0513307098888641</v>
+        <v>-0.003950376718580649</v>
       </c>
       <c r="F27">
-        <v>0.06136350285533302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02594534966268701</v>
+      </c>
+      <c r="G27">
+        <v>-0.02606871351853522</v>
+      </c>
+      <c r="H27">
+        <v>-0.001502692256933212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08198937910827453</v>
+        <v>-0.1205335033536175</v>
       </c>
       <c r="C28">
-        <v>0.06367721591127656</v>
+        <v>0.05510229699869845</v>
       </c>
       <c r="D28">
-        <v>-0.04144741510935818</v>
+        <v>0.2058212294571307</v>
       </c>
       <c r="E28">
-        <v>-0.1741475883319943</v>
+        <v>0.03219648193038701</v>
       </c>
       <c r="F28">
-        <v>0.05902555115599906</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.1264664154938178</v>
+      </c>
+      <c r="G28">
+        <v>-0.01838333352320356</v>
+      </c>
+      <c r="H28">
+        <v>-0.005479017848413881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01926839757373129</v>
+        <v>-0.02047285225216568</v>
       </c>
       <c r="C29">
-        <v>0.02368707147928516</v>
+        <v>0.006927521846350327</v>
       </c>
       <c r="D29">
-        <v>-0.001836188692717595</v>
+        <v>-0.002302037594587587</v>
       </c>
       <c r="E29">
-        <v>0.05797340093945893</v>
+        <v>-0.008590863975579167</v>
       </c>
       <c r="F29">
-        <v>0.05327441239865996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.02969136610780748</v>
+      </c>
+      <c r="G29">
+        <v>-0.03307698651882509</v>
+      </c>
+      <c r="H29">
+        <v>-0.02026786134857997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07863714151376762</v>
+        <v>-0.05499035387261431</v>
       </c>
       <c r="C30">
-        <v>0.05776512776717215</v>
+        <v>0.009768627921058686</v>
       </c>
       <c r="D30">
-        <v>0.03738248930792041</v>
+        <v>-0.04705987977114172</v>
       </c>
       <c r="E30">
-        <v>0.09289148082689198</v>
+        <v>0.03535347624026509</v>
       </c>
       <c r="F30">
-        <v>0.07109657160538579</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.08205793665923353</v>
+      </c>
+      <c r="G30">
+        <v>-0.06367137427370602</v>
+      </c>
+      <c r="H30">
+        <v>0.03758801346631068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05673091709670406</v>
+        <v>-0.05138243866420999</v>
       </c>
       <c r="C31">
-        <v>0.01944691260381106</v>
+        <v>0.02680943400471859</v>
       </c>
       <c r="D31">
-        <v>0.04461924187642</v>
+        <v>-0.01855961402862457</v>
       </c>
       <c r="E31">
-        <v>0.03594458405921278</v>
+        <v>0.008675430222588962</v>
       </c>
       <c r="F31">
-        <v>0.03889214617979899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02283860359471804</v>
+      </c>
+      <c r="G31">
+        <v>-0.01762629133197731</v>
+      </c>
+      <c r="H31">
+        <v>-0.0155060013395035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01010366860602072</v>
+        <v>-0.004962004572763317</v>
       </c>
       <c r="C32">
-        <v>0.02091841597636412</v>
+        <v>0.01503843262530037</v>
       </c>
       <c r="D32">
-        <v>-0.002957239078928636</v>
+        <v>0.008661806502095576</v>
       </c>
       <c r="E32">
-        <v>0.07303864777948672</v>
+        <v>-0.01759627549498282</v>
       </c>
       <c r="F32">
-        <v>0.07434182261029819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.04331050063403571</v>
+      </c>
+      <c r="G32">
+        <v>-0.05106686977954977</v>
+      </c>
+      <c r="H32">
+        <v>0.04203398975728374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04920361729309806</v>
+        <v>-0.03852792050529296</v>
       </c>
       <c r="C33">
-        <v>0.003620057234344765</v>
+        <v>0.009297932179490716</v>
       </c>
       <c r="D33">
-        <v>0.04149740991932475</v>
+        <v>-0.02948967389728162</v>
       </c>
       <c r="E33">
-        <v>0.06478257037957096</v>
+        <v>0.02108497818948288</v>
       </c>
       <c r="F33">
-        <v>0.09036126874061272</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01772687742737446</v>
+      </c>
+      <c r="G33">
+        <v>-0.05788538277438748</v>
+      </c>
+      <c r="H33">
+        <v>0.01602990977221789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02871338965496224</v>
+        <v>-0.02372231074748134</v>
       </c>
       <c r="C34">
-        <v>0.01709336538821531</v>
+        <v>0.02285591066772068</v>
       </c>
       <c r="D34">
-        <v>0.01032933731929826</v>
+        <v>-0.02514746911482833</v>
       </c>
       <c r="E34">
-        <v>0.03700944141128291</v>
+        <v>-0.006611397339746243</v>
       </c>
       <c r="F34">
-        <v>0.04377097553903323</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02927692343051973</v>
+      </c>
+      <c r="G34">
+        <v>-0.02537862178618773</v>
+      </c>
+      <c r="H34">
+        <v>0.02461681817756683</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01298352122082748</v>
+        <v>-0.01874248284829204</v>
       </c>
       <c r="C36">
-        <v>0.01011491633620024</v>
+        <v>-0.0005963343337157715</v>
       </c>
       <c r="D36">
-        <v>0.001500755277651161</v>
+        <v>0.002488112746252243</v>
       </c>
       <c r="E36">
-        <v>0.02706661812132995</v>
+        <v>-0.001911579784152506</v>
       </c>
       <c r="F36">
-        <v>0.03095741079077242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.006833966305535747</v>
+      </c>
+      <c r="G36">
+        <v>-0.02035466204875596</v>
+      </c>
+      <c r="H36">
+        <v>-0.003177345703853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00671046486724979</v>
+        <v>-0.0132582517068818</v>
       </c>
       <c r="C38">
-        <v>-0.002381927042357668</v>
+        <v>0.018252555795347</v>
       </c>
       <c r="D38">
-        <v>-0.01529811660706212</v>
+        <v>0.003196315495240386</v>
       </c>
       <c r="E38">
-        <v>-0.009430212271792677</v>
+        <v>-0.006385766147312268</v>
       </c>
       <c r="F38">
-        <v>0.0009551243639190409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.007955393609922879</v>
+      </c>
+      <c r="G38">
+        <v>-0.02471464325169834</v>
+      </c>
+      <c r="H38">
+        <v>0.01751399726903372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03721868016645528</v>
+        <v>-0.02498885741646105</v>
       </c>
       <c r="C39">
-        <v>0.02535519268231084</v>
+        <v>0.008303611626147397</v>
       </c>
       <c r="D39">
-        <v>0.02769864706068857</v>
+        <v>-0.0603673716839522</v>
       </c>
       <c r="E39">
-        <v>0.03466565828479214</v>
+        <v>-3.187385546670593e-05</v>
       </c>
       <c r="F39">
-        <v>0.04880682019812346</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05215792599388562</v>
+      </c>
+      <c r="G39">
+        <v>-0.05137599911077882</v>
+      </c>
+      <c r="H39">
+        <v>0.0487179628569335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02760553445994179</v>
+        <v>-0.02893060386665137</v>
       </c>
       <c r="C40">
-        <v>0.03657572388507385</v>
+        <v>0.00743321959553675</v>
       </c>
       <c r="D40">
-        <v>0.0510676785987619</v>
+        <v>-0.01926618700698851</v>
       </c>
       <c r="E40">
-        <v>0.03839563604912524</v>
+        <v>0.01901184605258095</v>
       </c>
       <c r="F40">
-        <v>0.07639530309028701</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03957220929775851</v>
+      </c>
+      <c r="G40">
+        <v>-0.03662728925157201</v>
+      </c>
+      <c r="H40">
+        <v>0.04427538704341897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.003161705244449421</v>
+        <v>-0.007286653046419636</v>
       </c>
       <c r="C41">
-        <v>-0.01072763689493968</v>
+        <v>-0.0003482434162688917</v>
       </c>
       <c r="D41">
-        <v>0.006421107156869356</v>
+        <v>0.005400769782124734</v>
       </c>
       <c r="E41">
-        <v>0.01990064747110929</v>
+        <v>0.001303637758334285</v>
       </c>
       <c r="F41">
-        <v>0.01773998543780876</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005749040983122598</v>
+      </c>
+      <c r="G41">
+        <v>-0.005903668715669289</v>
+      </c>
+      <c r="H41">
+        <v>-0.01817062949624494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4051041519301998</v>
+        <v>-0.24739937517685</v>
       </c>
       <c r="C42">
-        <v>-0.8744818166547743</v>
+        <v>-0.04765039819920103</v>
       </c>
       <c r="D42">
-        <v>0.1783288884093949</v>
+        <v>-0.6319232918099715</v>
       </c>
       <c r="E42">
-        <v>-0.1057860220258309</v>
+        <v>0.07702047303834782</v>
       </c>
       <c r="F42">
-        <v>-0.02287406502442493</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7138610570455829</v>
+      </c>
+      <c r="G42">
+        <v>0.0751613538449338</v>
+      </c>
+      <c r="H42">
+        <v>0.02052352458866705</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01007076369972915</v>
+        <v>-0.00449105086891672</v>
       </c>
       <c r="C43">
-        <v>-0.005758115886846912</v>
+        <v>-0.003393725801775647</v>
       </c>
       <c r="D43">
-        <v>0.01094435687164175</v>
+        <v>0.007121149799322737</v>
       </c>
       <c r="E43">
-        <v>0.02083262885336657</v>
+        <v>0.005435451517841416</v>
       </c>
       <c r="F43">
-        <v>0.03437714734463142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.009687439140727243</v>
+      </c>
+      <c r="G43">
+        <v>-0.01444882161566928</v>
+      </c>
+      <c r="H43">
+        <v>-0.01025538584119088</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01611710975305168</v>
+        <v>-0.01103168426143041</v>
       </c>
       <c r="C44">
-        <v>0.006307390222907717</v>
+        <v>0.001484267254722499</v>
       </c>
       <c r="D44">
-        <v>0.01992978351039376</v>
+        <v>-0.02227188796918595</v>
       </c>
       <c r="E44">
-        <v>0.04877589779057848</v>
+        <v>-0.002946638284638782</v>
       </c>
       <c r="F44">
-        <v>0.1828533206328721</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.009330469076705233</v>
+      </c>
+      <c r="G44">
+        <v>-0.08461628364704595</v>
+      </c>
+      <c r="H44">
+        <v>0.01407307600274961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01585659214292439</v>
+        <v>-0.02146448388529439</v>
       </c>
       <c r="C46">
-        <v>0.02044627936137146</v>
+        <v>0.003298709746749928</v>
       </c>
       <c r="D46">
-        <v>0.01296888434546808</v>
+        <v>-0.006511321649681929</v>
       </c>
       <c r="E46">
-        <v>0.0593316337643132</v>
+        <v>0.002121720875055595</v>
       </c>
       <c r="F46">
-        <v>0.05694662392443745</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03483123456711981</v>
+      </c>
+      <c r="G46">
+        <v>-0.04941873300776321</v>
+      </c>
+      <c r="H46">
+        <v>-0.01762116593221456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09182399451800105</v>
+        <v>-0.06988747454649277</v>
       </c>
       <c r="C47">
-        <v>0.0350388778509776</v>
+        <v>0.04734195498660506</v>
       </c>
       <c r="D47">
-        <v>0.02356565012898021</v>
+        <v>-0.0223707564566263</v>
       </c>
       <c r="E47">
-        <v>0.05317693985722639</v>
+        <v>0.004466360396466468</v>
       </c>
       <c r="F47">
-        <v>0.001452328890238324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03413421855840936</v>
+      </c>
+      <c r="G47">
+        <v>0.01541585605750433</v>
+      </c>
+      <c r="H47">
+        <v>-0.03138488136785945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.008289427203487614</v>
+        <v>-0.0165922292884746</v>
       </c>
       <c r="C48">
-        <v>0.005410484008067681</v>
+        <v>0.009112930931483243</v>
       </c>
       <c r="D48">
-        <v>0.01322818084467545</v>
+        <v>-0.004009890265312235</v>
       </c>
       <c r="E48">
-        <v>0.0410566631953866</v>
+        <v>0.001628616498478441</v>
       </c>
       <c r="F48">
-        <v>0.04541629592362667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01252092160730494</v>
+      </c>
+      <c r="G48">
+        <v>-0.02635504738753573</v>
+      </c>
+      <c r="H48">
+        <v>0.000473111175048669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08363306833052533</v>
+        <v>-0.06352539592689314</v>
       </c>
       <c r="C50">
-        <v>0.02067103369072238</v>
+        <v>0.04011991841273522</v>
       </c>
       <c r="D50">
-        <v>0.03561614230016707</v>
+        <v>-0.03509687367029485</v>
       </c>
       <c r="E50">
-        <v>0.05775120143716947</v>
+        <v>-0.009771476038824525</v>
       </c>
       <c r="F50">
-        <v>0.03384986374834123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03346652579885141</v>
+      </c>
+      <c r="G50">
+        <v>-0.01822074284329637</v>
+      </c>
+      <c r="H50">
+        <v>-0.02456904678380572</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03729674534231637</v>
+        <v>-0.02513933500313769</v>
       </c>
       <c r="C51">
-        <v>-0.0001984144851359566</v>
+        <v>0.005901485465964202</v>
       </c>
       <c r="D51">
-        <v>0.04518766506149605</v>
+        <v>0.004237075444571093</v>
       </c>
       <c r="E51">
-        <v>0.009173746713418859</v>
+        <v>0.01501642679133753</v>
       </c>
       <c r="F51">
-        <v>0.1554424815225145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0172686552720212</v>
+      </c>
+      <c r="G51">
+        <v>-0.08306586842771468</v>
+      </c>
+      <c r="H51">
+        <v>0.02308581172702785</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1015577316628094</v>
+        <v>-0.08926833885972672</v>
       </c>
       <c r="C53">
-        <v>0.04930375331380982</v>
+        <v>0.05970976731411039</v>
       </c>
       <c r="D53">
-        <v>0.04160256623705753</v>
+        <v>-0.04564377205214379</v>
       </c>
       <c r="E53">
-        <v>0.0617168220721513</v>
+        <v>0.002621430263455053</v>
       </c>
       <c r="F53">
-        <v>-0.05967148195939987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06860332039389587</v>
+      </c>
+      <c r="G53">
+        <v>0.0606216007659424</v>
+      </c>
+      <c r="H53">
+        <v>-0.03557213006371446</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02008079743569157</v>
+        <v>-0.02127792211282084</v>
       </c>
       <c r="C54">
-        <v>0.03687550561403126</v>
+        <v>0.01792887329016803</v>
       </c>
       <c r="D54">
-        <v>0.002724690063739419</v>
+        <v>0.02534364586734788</v>
       </c>
       <c r="E54">
-        <v>0.03506943126091178</v>
+        <v>-0.0008113432222458608</v>
       </c>
       <c r="F54">
-        <v>0.07936592938448225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0101557511845737</v>
+      </c>
+      <c r="G54">
+        <v>-0.04139047150890814</v>
+      </c>
+      <c r="H54">
+        <v>-0.01770270888716029</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09922796341005287</v>
+        <v>-0.07641780896147786</v>
       </c>
       <c r="C55">
-        <v>0.03522199609612089</v>
+        <v>0.05221776831953095</v>
       </c>
       <c r="D55">
-        <v>-0.004106475175621779</v>
+        <v>-0.04434250437109506</v>
       </c>
       <c r="E55">
-        <v>0.06386598010753061</v>
+        <v>-0.01102415966421152</v>
       </c>
       <c r="F55">
-        <v>-0.05344803883726133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.05872464753705254</v>
+      </c>
+      <c r="G55">
+        <v>0.03863481714061254</v>
+      </c>
+      <c r="H55">
+        <v>-0.0504952245035558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1393611234303539</v>
+        <v>-0.1161489237977187</v>
       </c>
       <c r="C56">
-        <v>0.07862419858211181</v>
+        <v>0.08487112412416513</v>
       </c>
       <c r="D56">
-        <v>0.02702352453617341</v>
+        <v>-0.05847151857676287</v>
       </c>
       <c r="E56">
-        <v>0.08221726905621297</v>
+        <v>-0.002839558561813764</v>
       </c>
       <c r="F56">
-        <v>-0.1612739330769514</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0969127968933044</v>
+      </c>
+      <c r="G56">
+        <v>0.1042323447147289</v>
+      </c>
+      <c r="H56">
+        <v>-0.02673888432215542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04286524554560346</v>
+        <v>-0.04232706776508759</v>
       </c>
       <c r="C57">
-        <v>0.01415340863058896</v>
+        <v>-0.0003566143991740277</v>
       </c>
       <c r="D57">
-        <v>0.0300597797992309</v>
+        <v>-0.0201015898466583</v>
       </c>
       <c r="E57">
-        <v>0.01998713146769826</v>
+        <v>0.01081955805577533</v>
       </c>
       <c r="F57">
-        <v>0.07183533986771203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02742123049356426</v>
+      </c>
+      <c r="G57">
+        <v>-0.06606438172006499</v>
+      </c>
+      <c r="H57">
+        <v>0.01053341123418049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2049411457773016</v>
+        <v>-0.150753387620371</v>
       </c>
       <c r="C58">
-        <v>0.06664018705223568</v>
+        <v>0.08333661013663513</v>
       </c>
       <c r="D58">
-        <v>0.1061882406585403</v>
+        <v>-0.1184972792594377</v>
       </c>
       <c r="E58">
-        <v>0.2065583664629145</v>
+        <v>0.1143427075417704</v>
       </c>
       <c r="F58">
-        <v>0.3322256138056771</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.07313316363560921</v>
+      </c>
+      <c r="G58">
+        <v>-0.670256525785165</v>
+      </c>
+      <c r="H58">
+        <v>-0.5646514889268055</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08006551045935993</v>
+        <v>-0.1211281860088383</v>
       </c>
       <c r="C59">
-        <v>0.08865623477675383</v>
+        <v>0.06228576082677922</v>
       </c>
       <c r="D59">
-        <v>-0.03221443656642697</v>
+        <v>0.2034846985957073</v>
       </c>
       <c r="E59">
-        <v>-0.152827721262662</v>
+        <v>0.04980905914923139</v>
       </c>
       <c r="F59">
-        <v>0.05680068262105052</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.1057035340542691</v>
+      </c>
+      <c r="G59">
+        <v>-0.02422090708838147</v>
+      </c>
+      <c r="H59">
+        <v>0.02524093511364787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1680461891326126</v>
+        <v>-0.1605586575681806</v>
       </c>
       <c r="C60">
-        <v>0.07596999665869963</v>
+        <v>0.07595482564018374</v>
       </c>
       <c r="D60">
-        <v>0.06450402263659108</v>
+        <v>-0.005182306846701041</v>
       </c>
       <c r="E60">
-        <v>0.02609491410695295</v>
+        <v>0.05670217445152165</v>
       </c>
       <c r="F60">
-        <v>0.1043722269616907</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.06911704583516455</v>
+      </c>
+      <c r="G60">
+        <v>-0.1334883929068869</v>
+      </c>
+      <c r="H60">
+        <v>0.3689636253871987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01947239273243787</v>
+        <v>-0.02142180731068567</v>
       </c>
       <c r="C61">
-        <v>0.01204131788051143</v>
+        <v>0.01187097553057332</v>
       </c>
       <c r="D61">
-        <v>0.004297079043754707</v>
+        <v>-0.03164672287225855</v>
       </c>
       <c r="E61">
-        <v>0.01797749321880359</v>
+        <v>-0.003954714291318505</v>
       </c>
       <c r="F61">
-        <v>0.0424871727652928</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03612019412322868</v>
+      </c>
+      <c r="G61">
+        <v>-0.03169012878897282</v>
+      </c>
+      <c r="H61">
+        <v>0.03691590951191213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01566436622226906</v>
+        <v>-0.01358524267979841</v>
       </c>
       <c r="C63">
-        <v>0.01502295035557605</v>
+        <v>0.001648271537778369</v>
       </c>
       <c r="D63">
-        <v>0.0129402408573644</v>
+        <v>-0.004038872240460679</v>
       </c>
       <c r="E63">
-        <v>0.04192272390773184</v>
+        <v>-0.001432596565758158</v>
       </c>
       <c r="F63">
-        <v>0.02045059781967354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02162034080921899</v>
+      </c>
+      <c r="G63">
+        <v>-0.01804838240672897</v>
+      </c>
+      <c r="H63">
+        <v>-0.0106153737017087</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02857706391752976</v>
+        <v>-0.03707689786476993</v>
       </c>
       <c r="C64">
-        <v>0.02186571598435673</v>
+        <v>0.01901326314225196</v>
       </c>
       <c r="D64">
-        <v>-0.01891404274827278</v>
+        <v>-0.0274070033877524</v>
       </c>
       <c r="E64">
-        <v>0.04642032617889925</v>
+        <v>-0.01427771368294562</v>
       </c>
       <c r="F64">
-        <v>0.02259901450619923</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03357368454050525</v>
+      </c>
+      <c r="G64">
+        <v>-0.009302106677586653</v>
+      </c>
+      <c r="H64">
+        <v>0.02958028078480089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01083668210570744</v>
+        <v>-0.03556888906676652</v>
       </c>
       <c r="C65">
-        <v>-0.0002545296126317963</v>
+        <v>0.004695963995719237</v>
       </c>
       <c r="D65">
-        <v>0.009170499553540037</v>
+        <v>-0.03579999161371948</v>
       </c>
       <c r="E65">
-        <v>0.005640369224869001</v>
+        <v>-0.007070662666473667</v>
       </c>
       <c r="F65">
-        <v>0.007559885391320552</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.0419887975152434</v>
+      </c>
+      <c r="G65">
+        <v>-0.001327004005906976</v>
+      </c>
+      <c r="H65">
+        <v>0.05835391417104302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0338686381033018</v>
+        <v>-0.03016937240629726</v>
       </c>
       <c r="C66">
-        <v>0.02930719645603685</v>
+        <v>0.01462633169021268</v>
       </c>
       <c r="D66">
-        <v>0.02128547229742635</v>
+        <v>-0.06517334590942304</v>
       </c>
       <c r="E66">
-        <v>0.03844070263567462</v>
+        <v>0.005214372749492388</v>
       </c>
       <c r="F66">
-        <v>0.04417010045052439</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07258057813469473</v>
+      </c>
+      <c r="G66">
+        <v>-0.04261721020734756</v>
+      </c>
+      <c r="H66">
+        <v>0.0611612379055992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02534534052684952</v>
+        <v>-0.031752946534267</v>
       </c>
       <c r="C67">
-        <v>0.0087833397715432</v>
+        <v>0.02564478713425056</v>
       </c>
       <c r="D67">
-        <v>-0.01636140078751407</v>
+        <v>0.01138719809009198</v>
       </c>
       <c r="E67">
-        <v>-0.03526268032184122</v>
+        <v>-0.00202072193991063</v>
       </c>
       <c r="F67">
-        <v>0.01044368217772542</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.009874750100773261</v>
+      </c>
+      <c r="G67">
+        <v>-0.0162968863008916</v>
+      </c>
+      <c r="H67">
+        <v>0.03148159953987286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09104212915408406</v>
+        <v>-0.1244368781409526</v>
       </c>
       <c r="C68">
-        <v>0.06802528481384031</v>
+        <v>0.04034947115166355</v>
       </c>
       <c r="D68">
-        <v>-0.05124416773916982</v>
+        <v>0.1886569876462354</v>
       </c>
       <c r="E68">
-        <v>-0.1740604425484636</v>
+        <v>0.04050815602690826</v>
       </c>
       <c r="F68">
-        <v>0.01241810367417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1243859736181028</v>
+      </c>
+      <c r="G68">
+        <v>-0.01499107810620849</v>
+      </c>
+      <c r="H68">
+        <v>-0.04678475291307681</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07027022994748265</v>
+        <v>-0.05414460056745547</v>
       </c>
       <c r="C69">
-        <v>0.03484103212171354</v>
+        <v>0.04186116141363801</v>
       </c>
       <c r="D69">
-        <v>0.02443307980692516</v>
+        <v>-0.02160149271309096</v>
       </c>
       <c r="E69">
-        <v>0.0140567142314529</v>
+        <v>0.004982650368211658</v>
       </c>
       <c r="F69">
-        <v>0.01798308272769686</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03368211955438202</v>
+      </c>
+      <c r="G69">
+        <v>0.005733025639495665</v>
+      </c>
+      <c r="H69">
+        <v>-0.01125664722106566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1074205458700603</v>
+        <v>-0.1203217388529674</v>
       </c>
       <c r="C71">
-        <v>0.07487593112540521</v>
+        <v>0.04919945859229592</v>
       </c>
       <c r="D71">
-        <v>-0.02545953503450503</v>
+        <v>0.1775208207840366</v>
       </c>
       <c r="E71">
-        <v>-0.2224592912079563</v>
+        <v>0.04343222937560042</v>
       </c>
       <c r="F71">
-        <v>0.03764889250109194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1292812177521141</v>
+      </c>
+      <c r="G71">
+        <v>-0.01867893721209126</v>
+      </c>
+      <c r="H71">
+        <v>-0.02274100299624631</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1070948632676023</v>
+        <v>-0.08121276125501253</v>
       </c>
       <c r="C72">
-        <v>0.09784572816544831</v>
+        <v>0.06303725144743294</v>
       </c>
       <c r="D72">
-        <v>0.01947495933509275</v>
+        <v>-0.05399739069431922</v>
       </c>
       <c r="E72">
-        <v>0.07946861669304603</v>
+        <v>0.008598858673836279</v>
       </c>
       <c r="F72">
-        <v>0.1047889844197242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1174321869799782</v>
+      </c>
+      <c r="G72">
+        <v>-0.09455678834645265</v>
+      </c>
+      <c r="H72">
+        <v>0.1411716977282634</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2525123256632203</v>
+        <v>-0.228817313149637</v>
       </c>
       <c r="C73">
-        <v>0.1155088562125463</v>
+        <v>0.1038972718019995</v>
       </c>
       <c r="D73">
-        <v>0.06452237924713505</v>
+        <v>-0.0322144556772457</v>
       </c>
       <c r="E73">
-        <v>-0.02241659088771573</v>
+        <v>0.08845110038001264</v>
       </c>
       <c r="F73">
-        <v>0.2049570211389475</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08863873626322541</v>
+      </c>
+      <c r="G73">
+        <v>-0.1989153020950898</v>
+      </c>
+      <c r="H73">
+        <v>0.5066683810644954</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1212921320559389</v>
+        <v>-0.1045657279181262</v>
       </c>
       <c r="C74">
-        <v>0.0456237708214779</v>
+        <v>0.0759746183205606</v>
       </c>
       <c r="D74">
-        <v>0.03022567162020164</v>
+        <v>-0.05950405907773233</v>
       </c>
       <c r="E74">
-        <v>0.03923144545356148</v>
+        <v>0.004012040114637794</v>
       </c>
       <c r="F74">
-        <v>-0.124332436203694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.08108337036615083</v>
+      </c>
+      <c r="G74">
+        <v>0.08671800993878924</v>
+      </c>
+      <c r="H74">
+        <v>-0.01073686671779059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2140098756072941</v>
+        <v>-0.2088791078689449</v>
       </c>
       <c r="C75">
-        <v>0.1213014242983179</v>
+        <v>0.1534501138256226</v>
       </c>
       <c r="D75">
-        <v>0.06712399032682755</v>
+        <v>-0.07562784099991106</v>
       </c>
       <c r="E75">
-        <v>0.09980569037424709</v>
+        <v>0.02475777385713325</v>
       </c>
       <c r="F75">
-        <v>-0.1881261984603637</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1547730166616636</v>
+      </c>
+      <c r="G75">
+        <v>0.1631697113089429</v>
+      </c>
+      <c r="H75">
+        <v>-0.08719446504023438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2513420340228666</v>
+        <v>-0.1943178276287585</v>
       </c>
       <c r="C76">
-        <v>0.1262763305316214</v>
+        <v>0.1468266943685477</v>
       </c>
       <c r="D76">
-        <v>0.01231049256745493</v>
+        <v>-0.07318782368940262</v>
       </c>
       <c r="E76">
-        <v>0.06526950612497288</v>
+        <v>-0.01456780027487248</v>
       </c>
       <c r="F76">
-        <v>-0.2016476884915131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.153182422966633</v>
+      </c>
+      <c r="G76">
+        <v>0.1813479793798874</v>
+      </c>
+      <c r="H76">
+        <v>-0.08994015695156105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.133077096979718</v>
+        <v>-0.07323880662139021</v>
       </c>
       <c r="C77">
-        <v>-0.01440410322760997</v>
+        <v>0.02637126270095902</v>
       </c>
       <c r="D77">
-        <v>0.0637450152696839</v>
+        <v>-0.07875142840388945</v>
       </c>
       <c r="E77">
-        <v>0.09079931430657277</v>
+        <v>0.009393996405380835</v>
       </c>
       <c r="F77">
-        <v>0.1890690190209037</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01599085199109507</v>
+      </c>
+      <c r="G77">
+        <v>-0.1139776509417489</v>
+      </c>
+      <c r="H77">
+        <v>-0.06689259736338241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04828424184114453</v>
+        <v>-0.0340320149075397</v>
       </c>
       <c r="C78">
-        <v>0.01237851495147159</v>
+        <v>0.01782136355420505</v>
       </c>
       <c r="D78">
-        <v>0.02955353916011968</v>
+        <v>-0.05172553913427259</v>
       </c>
       <c r="E78">
-        <v>0.1037613444529186</v>
+        <v>-0.006022599382373248</v>
       </c>
       <c r="F78">
-        <v>0.03281230380329946</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05465351705202377</v>
+      </c>
+      <c r="G78">
+        <v>-0.04747035567534014</v>
+      </c>
+      <c r="H78">
+        <v>0.02672600999334809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2001530851350676</v>
+        <v>-0.1695077269772783</v>
       </c>
       <c r="C80">
-        <v>-0.1370746931520342</v>
+        <v>0.09343459465057725</v>
       </c>
       <c r="D80">
-        <v>-0.9272550852431658</v>
+        <v>0.03613678224316471</v>
       </c>
       <c r="E80">
-        <v>0.2408589111223886</v>
+        <v>-0.9607948600678431</v>
       </c>
       <c r="F80">
-        <v>0.045054992326703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.1015571779711257</v>
+      </c>
+      <c r="G80">
+        <v>-0.105446220642471</v>
+      </c>
+      <c r="H80">
+        <v>0.008321295457898198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1496751604872165</v>
+        <v>-0.1407215580354497</v>
       </c>
       <c r="C81">
-        <v>0.1038929414148593</v>
+        <v>0.1032347324349591</v>
       </c>
       <c r="D81">
-        <v>0.02151100902531557</v>
+        <v>-0.04686906387551913</v>
       </c>
       <c r="E81">
-        <v>0.07648675057266718</v>
+        <v>0.001458314859999889</v>
       </c>
       <c r="F81">
-        <v>-0.1775615717145122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1102244363714253</v>
+      </c>
+      <c r="G81">
+        <v>0.1128082809044144</v>
+      </c>
+      <c r="H81">
+        <v>-0.0696080551546007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04987793083672901</v>
+        <v>-0.03708165747592956</v>
       </c>
       <c r="C83">
-        <v>-0.008886550930398201</v>
+        <v>0.01600970710318307</v>
       </c>
       <c r="D83">
-        <v>0.03862677560324988</v>
+        <v>-0.01968327476481758</v>
       </c>
       <c r="E83">
-        <v>0.03766809856622274</v>
+        <v>0.01298040423143126</v>
       </c>
       <c r="F83">
-        <v>0.07060428960190498</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01499156803877747</v>
+      </c>
+      <c r="G83">
+        <v>-0.05513194274500824</v>
+      </c>
+      <c r="H83">
+        <v>0.01789200345777296</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.221741527139225</v>
+        <v>-0.1996714717659721</v>
       </c>
       <c r="C85">
-        <v>0.1028633712989749</v>
+        <v>0.1325443977530424</v>
       </c>
       <c r="D85">
-        <v>0.0371283069480124</v>
+        <v>-0.09434940326699208</v>
       </c>
       <c r="E85">
-        <v>0.06858988317327823</v>
+        <v>0.01238871015125853</v>
       </c>
       <c r="F85">
-        <v>-0.2036012783537356</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1423236927412335</v>
+      </c>
+      <c r="G85">
+        <v>0.169021733617419</v>
+      </c>
+      <c r="H85">
+        <v>-0.06311398483109516</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003437859429663534</v>
+        <v>-0.01120903084255636</v>
       </c>
       <c r="C86">
-        <v>-0.01116477631586962</v>
+        <v>-0.0006590771377602968</v>
       </c>
       <c r="D86">
-        <v>0.004952218944648888</v>
+        <v>-0.009361269428332626</v>
       </c>
       <c r="E86">
-        <v>0.05571380048414785</v>
+        <v>0.007819902213613896</v>
       </c>
       <c r="F86">
-        <v>0.07144958059104771</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.002501418130138888</v>
+      </c>
+      <c r="G86">
+        <v>-0.07656765971168325</v>
+      </c>
+      <c r="H86">
+        <v>0.03703492279764839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02816922034470641</v>
+        <v>-0.02520510100379359</v>
       </c>
       <c r="C87">
-        <v>0.01000897566163732</v>
+        <v>0.008464931251522888</v>
       </c>
       <c r="D87">
-        <v>0.008583807677709934</v>
+        <v>-0.02281775292175459</v>
       </c>
       <c r="E87">
-        <v>0.02954472170310392</v>
+        <v>0.0001345153571997082</v>
       </c>
       <c r="F87">
-        <v>0.0637171391432749</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02972059802276747</v>
+      </c>
+      <c r="G87">
+        <v>-0.08624958880696072</v>
+      </c>
+      <c r="H87">
+        <v>0.02355181202604375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.007754220538012326</v>
+        <v>-0.03995179732291144</v>
       </c>
       <c r="C88">
-        <v>0.01857868582913292</v>
+        <v>-0.00142936271765773</v>
       </c>
       <c r="D88">
-        <v>-0.0221131637799483</v>
+        <v>0.008960434940723391</v>
       </c>
       <c r="E88">
-        <v>-0.004958310239426608</v>
+        <v>-0.005790971899235505</v>
       </c>
       <c r="F88">
-        <v>0.0329253317462647</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01125413154962359</v>
+      </c>
+      <c r="G88">
+        <v>0.003823821441246375</v>
+      </c>
+      <c r="H88">
+        <v>0.01271976615148153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1259126756370766</v>
+        <v>-0.1957352454172475</v>
       </c>
       <c r="C89">
-        <v>0.09614113134695573</v>
+        <v>0.07617960452938743</v>
       </c>
       <c r="D89">
-        <v>-0.03376734879009371</v>
+        <v>0.3144835785250445</v>
       </c>
       <c r="E89">
-        <v>-0.29911654296359</v>
+        <v>0.09197758473084036</v>
       </c>
       <c r="F89">
-        <v>0.08604944714511373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1922352850878981</v>
+      </c>
+      <c r="G89">
+        <v>-0.005503803896981742</v>
+      </c>
+      <c r="H89">
+        <v>-0.02041659517978255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.114625896517785</v>
+        <v>-0.1508240209519609</v>
       </c>
       <c r="C90">
-        <v>0.09886251516161225</v>
+        <v>0.05862003697019864</v>
       </c>
       <c r="D90">
-        <v>-0.08588650373235872</v>
+        <v>0.2723976695127465</v>
       </c>
       <c r="E90">
-        <v>-0.272856748988696</v>
+        <v>0.05986849821819629</v>
       </c>
       <c r="F90">
-        <v>0.0536407101076566</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1782898559627326</v>
+      </c>
+      <c r="G90">
+        <v>0.02919374195929574</v>
+      </c>
+      <c r="H90">
+        <v>-0.03939267036114057</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2835243443263341</v>
+        <v>-0.2175818955636103</v>
       </c>
       <c r="C91">
-        <v>0.1025727867207424</v>
+        <v>0.1569691414194614</v>
       </c>
       <c r="D91">
-        <v>0.06204247046678211</v>
+        <v>-0.09211313142543069</v>
       </c>
       <c r="E91">
-        <v>0.06694066393456563</v>
+        <v>0.01643161075382838</v>
       </c>
       <c r="F91">
-        <v>-0.2500150701577117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1503411361212496</v>
+      </c>
+      <c r="G91">
+        <v>0.2182832138605581</v>
+      </c>
+      <c r="H91">
+        <v>-0.1151452797899759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1833565087092221</v>
+        <v>-0.2069691009093931</v>
       </c>
       <c r="C92">
-        <v>0.0939942989807432</v>
+        <v>0.1423956188094755</v>
       </c>
       <c r="D92">
-        <v>-0.108739514905704</v>
+        <v>0.2423210061389557</v>
       </c>
       <c r="E92">
-        <v>-0.4744847010285829</v>
+        <v>0.04942185040714451</v>
       </c>
       <c r="F92">
-        <v>0.1093057489738443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1512453157483805</v>
+      </c>
+      <c r="G92">
+        <v>0.04486474467335327</v>
+      </c>
+      <c r="H92">
+        <v>-0.1285521590424958</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.129685037295229</v>
+        <v>-0.1735901748538635</v>
       </c>
       <c r="C93">
-        <v>0.08104318238544275</v>
+        <v>0.07500766248789065</v>
       </c>
       <c r="D93">
-        <v>-0.09538066503951399</v>
+        <v>0.2897192176222138</v>
       </c>
       <c r="E93">
-        <v>-0.3838897956225168</v>
+        <v>0.07735637556512963</v>
       </c>
       <c r="F93">
-        <v>0.001858573512616304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2178846318000175</v>
+      </c>
+      <c r="G93">
+        <v>0.03430527258030649</v>
+      </c>
+      <c r="H93">
+        <v>0.0168758751466692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2570915078323361</v>
+        <v>-0.2368442661382782</v>
       </c>
       <c r="C94">
-        <v>0.1356659752686357</v>
+        <v>0.149640206658937</v>
       </c>
       <c r="D94">
-        <v>0.03486195435672897</v>
+        <v>-0.06613157632147897</v>
       </c>
       <c r="E94">
-        <v>0.08917117820906811</v>
+        <v>0.03444138247041179</v>
       </c>
       <c r="F94">
-        <v>-0.2972518537020289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1679880918470125</v>
+      </c>
+      <c r="G94">
+        <v>0.2298866611951628</v>
+      </c>
+      <c r="H94">
+        <v>-0.1314384592102342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08072843773750574</v>
+        <v>-0.06248726019923372</v>
       </c>
       <c r="C95">
-        <v>0.02149846721964419</v>
+        <v>0.04779572510659502</v>
       </c>
       <c r="D95">
-        <v>0.06947293367889881</v>
+        <v>-0.07472613908537309</v>
       </c>
       <c r="E95">
-        <v>0.0707057685288377</v>
+        <v>0.07073927215664162</v>
       </c>
       <c r="F95">
-        <v>0.03414056200668286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.03439768513520102</v>
+      </c>
+      <c r="G95">
+        <v>-0.06427537619067029</v>
+      </c>
+      <c r="H95">
+        <v>0.01055259123947041</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1905197186886549</v>
+        <v>-0.1639717269106967</v>
       </c>
       <c r="C98">
-        <v>0.05747909829023418</v>
+        <v>0.1079837944039087</v>
       </c>
       <c r="D98">
-        <v>0.04593613855466118</v>
+        <v>-0.02079696269695023</v>
       </c>
       <c r="E98">
-        <v>-0.05521408577808511</v>
+        <v>0.05811711421516278</v>
       </c>
       <c r="F98">
-        <v>0.08838037366825141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.03605953082844809</v>
+      </c>
+      <c r="G98">
+        <v>-0.1697443283331256</v>
+      </c>
+      <c r="H98">
+        <v>0.3665581425774239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002991117939545087</v>
+        <v>-0.01387960327272652</v>
       </c>
       <c r="C101">
-        <v>0.02808754741152742</v>
+        <v>0.00336213107911456</v>
       </c>
       <c r="D101">
-        <v>0.01242227348855121</v>
+        <v>-0.003568326028418369</v>
       </c>
       <c r="E101">
-        <v>0.1218334158457498</v>
+        <v>-0.004077377788247431</v>
       </c>
       <c r="F101">
-        <v>0.1908701310762643</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03741701926451383</v>
+      </c>
+      <c r="G101">
+        <v>-0.09490571641836822</v>
+      </c>
+      <c r="H101">
+        <v>-0.07395046069092022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09149123010255426</v>
+        <v>-0.1013164766478799</v>
       </c>
       <c r="C102">
-        <v>0.03047225165823025</v>
+        <v>0.05943722875598581</v>
       </c>
       <c r="D102">
-        <v>0.01500767247465454</v>
+        <v>-0.04653155841530891</v>
       </c>
       <c r="E102">
-        <v>0.08616923190807387</v>
+        <v>-0.000682171050119362</v>
       </c>
       <c r="F102">
-        <v>-0.1356037907058991</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.0763395846992679</v>
+      </c>
+      <c r="G102">
+        <v>0.100851733797276</v>
+      </c>
+      <c r="H102">
+        <v>-0.05479742536378412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02346916225528069</v>
+        <v>-0.02121513117662025</v>
       </c>
       <c r="C103">
-        <v>0.01117233442801135</v>
+        <v>0.01353206246842667</v>
       </c>
       <c r="D103">
-        <v>0.01062684589468495</v>
+        <v>-0.01090340052603286</v>
       </c>
       <c r="E103">
-        <v>0.01016324620537757</v>
+        <v>-0.005831626604741439</v>
       </c>
       <c r="F103">
-        <v>-0.02586709021457517</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01889115849664865</v>
+      </c>
+      <c r="G103">
+        <v>0.01038333729167607</v>
+      </c>
+      <c r="H103">
+        <v>-0.008964581977956656</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4660674945970599</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.8614897925159577</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.0682698605635953</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01909583837724533</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1551852226435246</v>
+      </c>
+      <c r="G104">
+        <v>0.04020340790462126</v>
+      </c>
+      <c r="H104">
+        <v>-0.03144959401673532</v>
       </c>
     </row>
   </sheetData>
